--- a/doc/テーブル定義書.xlsx
+++ b/doc/テーブル定義書.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet name="MST_Users" sheetId="1" r:id="rId1"/>
     <sheet name="News" sheetId="5" r:id="rId2"/>
     <sheet name="Notices" sheetId="6" r:id="rId3"/>
     <sheet name="Programs" sheetId="8" r:id="rId4"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
   <si>
     <t>テーブル名</t>
     <phoneticPr fontId="1"/>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Users</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>News</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -446,6 +442,39 @@
   </si>
   <si>
     <t>IsAvailable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdatedAt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdatedBy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新者</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新日</t>
+    <rPh sb="0" eb="5">
+      <t>サイシュウコウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MST_Users</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1312,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ37"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21:X21"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1333,7 +1362,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="20" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -1370,7 +1399,7 @@
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
@@ -1826,7 +1855,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1851,7 +1880,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -2068,10 +2097,14 @@
       <c r="AZ12" s="9"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
+      <c r="A13" s="34">
+        <v>10</v>
+      </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2081,7 +2114,9 @@
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -2092,7 +2127,9 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
@@ -2122,10 +2159,14 @@
       <c r="AZ13" s="9"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
+      <c r="A14" s="34">
+        <v>11</v>
+      </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2135,7 +2176,9 @@
       <c r="K14" s="5"/>
       <c r="L14" s="6"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -2146,7 +2189,9 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="4"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
@@ -3412,7 +3457,7 @@
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="116" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:X12"/>
+      <selection activeCell="D13" sqref="D13:AZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3432,7 +3477,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -3469,7 +3514,7 @@
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
@@ -3753,7 +3798,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3766,7 +3811,7 @@
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
@@ -3815,7 +3860,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -4063,7 +4108,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
@@ -4169,112 +4214,128 @@
       <c r="AZ12" s="9"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
+      <c r="A13" s="34">
+        <v>10</v>
+      </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="8"/>
+      <c r="D13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="9"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
+      <c r="A14" s="34">
+        <v>11</v>
+      </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="8"/>
+      <c r="D14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="9"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
@@ -5513,7 +5574,7 @@
   <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:J10"/>
+      <selection activeCell="D12" sqref="D12:AZ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5533,7 +5594,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -5570,7 +5631,7 @@
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
@@ -5714,7 +5775,7 @@
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -5728,7 +5789,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -5741,7 +5802,7 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
@@ -5790,7 +5851,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -5803,7 +5864,7 @@
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -5852,7 +5913,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -5927,7 +5988,7 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z7" s="41"/>
       <c r="AA7" s="41"/>
@@ -6026,7 +6087,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -6038,7 +6099,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -6100,7 +6161,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -6206,112 +6267,128 @@
       <c r="AZ11" s="9"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
+      <c r="A12" s="34">
+        <v>9</v>
+      </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="8"/>
+      <c r="D12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="9"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
+      <c r="A13" s="34">
+        <v>10</v>
+      </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="8"/>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="9"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
@@ -7603,8 +7680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:J10"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7624,7 +7701,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -7661,7 +7738,7 @@
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
@@ -7832,7 +7909,7 @@
       <c r="W4" s="44"/>
       <c r="X4" s="45"/>
       <c r="Y4" s="15" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
@@ -7945,7 +8022,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7958,7 +8035,7 @@
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
@@ -8007,7 +8084,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -8020,7 +8097,7 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z7" s="41"/>
       <c r="AA7" s="41"/>
@@ -8119,7 +8196,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -8193,7 +8270,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -8299,10 +8376,14 @@
       <c r="AZ11" s="9"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
+      <c r="A12" s="34">
+        <v>9</v>
+      </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -8312,7 +8393,9 @@
       <c r="K12" s="5"/>
       <c r="L12" s="6"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -8323,7 +8406,9 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
@@ -8353,58 +8438,66 @@
       <c r="AZ12" s="9"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
+      <c r="A13" s="34">
+        <v>10</v>
+      </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="8"/>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="9"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
@@ -9717,7 +9810,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -9754,7 +9847,7 @@
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
@@ -9898,7 +9991,7 @@
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
@@ -9910,7 +10003,7 @@
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
       <c r="N4" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O4" s="44"/>
       <c r="P4" s="44"/>
@@ -9923,7 +10016,7 @@
       <c r="W4" s="44"/>
       <c r="X4" s="45"/>
       <c r="Y4" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
@@ -9960,7 +10053,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -9985,7 +10078,7 @@
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -11758,7 +11851,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -11793,7 +11886,7 @@
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
